--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1717437.047886041</v>
+        <v>-1719996.318453597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>2.290124985784263</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>43.2945117796236</v>
@@ -710,22 +710,22 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>229.41106907618</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.5456882239483</v>
+        <v>180.4795384556363</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>291.1023457043369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506846</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>140.9025975265404</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>150.2062474346973</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.6133851873731</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>177.2979137777569</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>10.20389322926705</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>221.6748003229865</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>190.597015812681</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629294</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>41.33703994142977</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>235.2417404045071</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,10 +1895,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.146142788179031</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>146.7151441592113</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>140.7944235414523</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428175</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766854</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.335884201938</v>
+        <v>866.2215162936441</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.373367261526</v>
+        <v>497.2589993532324</v>
       </c>
       <c r="D2" t="n">
-        <v>1208.107668654776</v>
+        <v>494.9457417918345</v>
       </c>
       <c r="E2" t="n">
-        <v>822.319416056532</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="F2" t="n">
-        <v>822.319416056532</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>109.1574891935902</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
@@ -4328,19 +4328,19 @@
         <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725632</v>
+        <v>250.5613272725627</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183949</v>
+        <v>578.7702206183947</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887446</v>
+        <v>1022.844136887445</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746181</v>
+        <v>2087.54019874618</v>
       </c>
       <c r="O2" t="n">
         <v>2583.081262767916</v>
@@ -4355,25 +4355,25 @@
         <v>3271.282955658118</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007347</v>
+        <v>3159.966809007348</v>
       </c>
       <c r="T2" t="n">
-        <v>3159.966809007347</v>
+        <v>2953.792066077314</v>
       </c>
       <c r="U2" t="n">
-        <v>2906.432732138376</v>
+        <v>2700.257989208342</v>
       </c>
       <c r="V2" t="n">
-        <v>2674.704379536174</v>
+        <v>2369.195101864771</v>
       </c>
       <c r="W2" t="n">
-        <v>2321.93572426606</v>
+        <v>2016.426446594657</v>
       </c>
       <c r="X2" t="n">
-        <v>2321.93572426606</v>
+        <v>1642.960688333578</v>
       </c>
       <c r="Y2" t="n">
-        <v>2321.93572426606</v>
+        <v>1252.821356357766</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645391</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364263</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703012</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697557</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724442</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>881.8251154793078</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158295</v>
+        <v>791.0906775767826</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316235</v>
+        <v>781.4824094083619</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056105</v>
+        <v>900.6041175573638</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794819</v>
+        <v>1135.057607831235</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656275</v>
+        <v>1496.631800017381</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366258</v>
+        <v>1937.928696118011</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102522</v>
+        <v>2405.314052854275</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176383</v>
+        <v>2810.660547928136</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>3116.653779959891</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658118</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417918</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545537</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.58834659589</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364147</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635945</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430412</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.587082665459</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1597.837225498579</v>
+        <v>675.5615440309507</v>
       </c>
       <c r="C4" t="n">
-        <v>1597.837225498579</v>
+        <v>506.6253611030438</v>
       </c>
       <c r="D4" t="n">
-        <v>1597.837225498579</v>
+        <v>506.6253611030438</v>
       </c>
       <c r="E4" t="n">
-        <v>1597.837225498579</v>
+        <v>358.7122675206507</v>
       </c>
       <c r="F4" t="n">
-        <v>1597.837225498579</v>
+        <v>211.8223200227404</v>
       </c>
       <c r="G4" t="n">
-        <v>1430.114202621746</v>
+        <v>211.8223200227404</v>
       </c>
       <c r="H4" t="n">
-        <v>1430.114202621746</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621746</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726846</v>
+        <v>109.1495242182615</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248736</v>
+        <v>310.8381027401521</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412496</v>
+        <v>624.4564789039122</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630628</v>
+        <v>965.5122071220435</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.58155235062</v>
+        <v>1303.893008842036</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744368</v>
+        <v>1600.426152235784</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372345</v>
+        <v>1830.640801863761</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658118</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141313</v>
+        <v>1815.856307632729</v>
       </c>
       <c r="S4" t="n">
-        <v>2988.507175657</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="T4" t="n">
-        <v>2766.654309878985</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>2477.550341936362</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="V4" t="n">
-        <v>2222.865853730475</v>
+        <v>1147.281278164514</v>
       </c>
       <c r="W4" t="n">
-        <v>1933.448683693514</v>
+        <v>857.864108127553</v>
       </c>
       <c r="X4" t="n">
-        <v>1705.459132795497</v>
+        <v>857.864108127553</v>
       </c>
       <c r="Y4" t="n">
-        <v>1597.837225498579</v>
+        <v>675.5615440309507</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1111.554341825106</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>753.2886432183552</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363905</v>
+        <v>367.500390620111</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>360.5548898709075</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>939.1364954489185</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>770.2003125210116</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>620.0836731086758</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1120.784960279158</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.669427940025</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1545.706910999614</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1187.441212392863</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1187.441212392863</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>371.6221203703324</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>223.7090267879393</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.694724195131</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1511.694724195131</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1222.27755415817</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X10" t="n">
-        <v>994.2880032601528</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,25 +5042,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232839</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408908</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429804</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2187.395141638036</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1898.319914982233</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1643.635426776346</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1354.218256739386</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232836</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5428,7 +5428,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,19 +5437,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746416</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168396</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1090.767110287001</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>921.8309273590942</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121644</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121644</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703108</v>
+        <v>1272.415575117241</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.917417812164</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400709</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708869</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038338</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797739</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011266</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6780,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580115</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954153</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,13 +7354,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>27.95355500661988</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>27.95355500661981</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>352.3929166348987</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>98.34118939395489</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.95340549104682</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.0389651281465</v>
+        <v>38.10511489645853</v>
       </c>
     </row>
     <row r="5">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>26.80843451460722</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16.89590291932089</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038648</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>7.821049476760038</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194255</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.2291039219424</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.0523207458</v>
+        <v>14479.05232074569</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125531</v>
+        <v>213977.889412553</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022697</v>
+        <v>3495.241841022609</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>12350.05787405599</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.97621680578</v>
       </c>
-      <c r="G4" t="n">
-        <v>11776.97621680578</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11776.97621680583</v>
-      </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="M4" t="n">
         <v>19767.8354798993</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331179.946321782</v>
+        <v>-1331540.029337499</v>
       </c>
       <c r="C6" t="n">
-        <v>-90220.73839065367</v>
+        <v>-90220.7383906536</v>
       </c>
       <c r="D6" t="n">
-        <v>-75741.6860699079</v>
+        <v>-75741.68606990791</v>
       </c>
       <c r="E6" t="n">
-        <v>-317239.9778945672</v>
+        <v>-317274.715820003</v>
       </c>
       <c r="F6" t="n">
-        <v>8172.483912787982</v>
+        <v>8137.745987352304</v>
       </c>
       <c r="G6" t="n">
-        <v>8172.483912787997</v>
+        <v>8137.745987352275</v>
       </c>
       <c r="H6" t="n">
-        <v>8172.483912787953</v>
+        <v>8137.745987352304</v>
       </c>
       <c r="I6" t="n">
-        <v>8172.483912787939</v>
+        <v>8137.745987352217</v>
       </c>
       <c r="J6" t="n">
-        <v>-205805.4054997652</v>
+        <v>-205840.1434252008</v>
       </c>
       <c r="K6" t="n">
-        <v>4677.242071765228</v>
+        <v>4642.504146329651</v>
       </c>
       <c r="L6" t="n">
-        <v>-19203.403847804</v>
+        <v>-19203.40384780396</v>
       </c>
       <c r="M6" t="n">
-        <v>-84830.71378968406</v>
+        <v>-84830.7137896841</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3141458278114</v>
+        <v>224.3141458277823</v>
       </c>
       <c r="O6" t="n">
         <v>224.3141458278114</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -27012,13 +27012,13 @@
         <v>817.8207389145294</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145294</v>
+        <v>817.8207389145291</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>817.8207389145294</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>119.8193799491166</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194503</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5.531365120028795</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>136.3167509018937</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.26266055433831</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>73.69725818114506</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>134.5511216850537</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>64.53703788262638</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31841,19 +31841,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>659.9976957396707</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32479,13 +32479,13 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175688</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,7 +33734,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964461</v>
+        <v>120.3249577262645</v>
       </c>
       <c r="K3" t="n">
         <v>236.8217073473448</v>
@@ -34793,7 +34793,7 @@
         <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>337.0376277659686</v>
+        <v>309.0840727593488</v>
       </c>
       <c r="Q3" t="n">
         <v>156.1910865638649</v>
@@ -35489,19 +35489,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38187,13 +38187,13 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
